--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239A5860-AF90-451B-A7AC-C2CE63B741CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BAE6D1-46D6-47D0-80BF-D05A03B7F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="400">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1233,6 +1233,9 @@
   </si>
   <si>
     <t>Tambur_CMC.png</t>
+  </si>
+  <si>
+    <t>MRSeries.pdf</t>
   </si>
 </sst>
 </file>
@@ -2101,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2300,6 +2303,9 @@
       <c r="F9">
         <v>8</v>
       </c>
+      <c r="G9" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3004,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BAE6D1-46D6-47D0-80BF-D05A03B7F9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8935C556-661F-41A5-9B04-CEBB20730B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
     <t>Tambur_CMC.png</t>
   </si>
   <si>
-    <t>MRSeries.pdf</t>
+    <t>MRSeries.png</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2105,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8935C556-661F-41A5-9B04-CEBB20730B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF568C-7208-48FD-8C40-6C056009EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="513">
   <si>
     <t>Kategori1</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Discap</t>
   </si>
   <si>
-    <t>Acici_Baski_Tipi</t>
-  </si>
-  <si>
     <t>Tambur_Hiz</t>
   </si>
   <si>
@@ -845,21 +842,6 @@
     <t>(2000 mm rulo dış çapı)</t>
   </si>
   <si>
-    <t>(P2 Tipi Baskı Kolu)</t>
-  </si>
-  <si>
-    <t>(P3 Tipi Baskı Kolu)</t>
-  </si>
-  <si>
-    <t>(P4 Tipi Baskı Kolu)</t>
-  </si>
-  <si>
-    <t>(2P3 Tipi Baskı Kolu)</t>
-  </si>
-  <si>
-    <t>(2P4 Tipi Baskı Kolu)</t>
-  </si>
-  <si>
     <t>(8 dev/dk)</t>
   </si>
   <si>
@@ -1236,6 +1218,363 @@
   </si>
   <si>
     <t>MRSeries.png</t>
+  </si>
+  <si>
+    <t>Kompakt_Hareket</t>
+  </si>
+  <si>
+    <t>Kompakt Hareket</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMKS</t>
+  </si>
+  <si>
+    <t>Tambur_CMCH</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Tipi_CMCH</t>
+  </si>
+  <si>
+    <t>Merkezleme_CMCH</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_CMCH</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_CMKS</t>
+  </si>
+  <si>
+    <t>Dogrultma_Tipi_CMKS</t>
+  </si>
+  <si>
+    <t>Hiz</t>
+  </si>
+  <si>
+    <t>Cikis_Unitesi_CMKS</t>
+  </si>
+  <si>
+    <t>Çıkış Ünitesi</t>
+  </si>
+  <si>
+    <t>Yaglayici</t>
+  </si>
+  <si>
+    <t>Yağlayıcı</t>
+  </si>
+  <si>
+    <t>Giyotin</t>
+  </si>
+  <si>
+    <t>Govde_Sonu_Tipi</t>
+  </si>
+  <si>
+    <t>Gövde Sonu Tipi</t>
+  </si>
+  <si>
+    <t>Yer_Baglanti_tipi</t>
+  </si>
+  <si>
+    <t>Yer Bağlantı Tipi</t>
+  </si>
+  <si>
+    <t>Sac_Gecis_Olcusu</t>
+  </si>
+  <si>
+    <t>Sac Geçiş Ölçüsü</t>
+  </si>
+  <si>
+    <t>Hidrolik_Unite_CMKS</t>
+  </si>
+  <si>
+    <t>Kompakt_Hareket_opts</t>
+  </si>
+  <si>
+    <t>ZZ</t>
+  </si>
+  <si>
+    <t>AKH</t>
+  </si>
+  <si>
+    <t>SKH</t>
+  </si>
+  <si>
+    <t>Kayar Hareket Yok</t>
+  </si>
+  <si>
+    <t>Kompakt Zigzag Hareket</t>
+  </si>
+  <si>
+    <t>Açıcı Kayar Hareket</t>
+  </si>
+  <si>
+    <t>Sürücü Kayar Hareket</t>
+  </si>
+  <si>
+    <t>Sac_Genislik_CMKS_opts</t>
+  </si>
+  <si>
+    <t>(400 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(600 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(800 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(1000 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(1300 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(1500 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(1600 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>(1800 mm sac genişliği)</t>
+  </si>
+  <si>
+    <t>Tambur_CMCH_opts</t>
+  </si>
+  <si>
+    <t>H4000</t>
+  </si>
+  <si>
+    <t>H3000</t>
+  </si>
+  <si>
+    <t>H6000</t>
+  </si>
+  <si>
+    <t>H8000</t>
+  </si>
+  <si>
+    <t>H10000</t>
+  </si>
+  <si>
+    <t>H12000</t>
+  </si>
+  <si>
+    <t>H15000</t>
+  </si>
+  <si>
+    <t>H20000</t>
+  </si>
+  <si>
+    <t>(3 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(4 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(6 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(8 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(10 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(12 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(15 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>(20 ton kapasiteli tambur)</t>
+  </si>
+  <si>
+    <t>Tambur_Tipi_CMCH</t>
+  </si>
+  <si>
+    <t>Tambur Türü</t>
+  </si>
+  <si>
+    <t>Tambur_Tipi_CMCH_opts</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Hafif Seri Tambur</t>
+  </si>
+  <si>
+    <t>Ağır Seri Tambur</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Tipi_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Sadece Üst Baskı</t>
+  </si>
+  <si>
+    <t>Alt - Üst Baskı</t>
+  </si>
+  <si>
+    <t>Açıcı Baskı Sayısı</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Sayisi_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Acici_Baski_Sayisi_CMCH</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>(P2 Tipi Baskı Kolu - Pnömatik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(P3 Tipi Baskı Kolu - Pnömatik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(P4 Tipi Baskı Kolu - Pnömatik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(2P3 Tipi Baskı Kolu - Pnömatik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(2P4 Tipi Baskı Kolu - Pnömatik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(H2 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(H3 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(H5 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(H7 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(H9 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
+  </si>
+  <si>
+    <t>(H11 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Merkezleme_CMCH_opts</t>
+  </si>
+  <si>
+    <t>OKS</t>
+  </si>
+  <si>
+    <t>2OKS</t>
+  </si>
+  <si>
+    <t>Tekli Otomatik Kılavuzlama Sistemi</t>
+  </si>
+  <si>
+    <t>İkili Otomatik Kılavuzlama Sistemi</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Teleskop_CMCH</t>
+  </si>
+  <si>
+    <t>Yükleme Arabası Var Mı?</t>
+  </si>
+  <si>
+    <t>Teleskop Özelliği Var Mı?</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Teleskop_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_RuloDevirme_CMCH</t>
+  </si>
+  <si>
+    <t>Rulo Devirme Var Mı?</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_RuloDevirme_CMCH_opts</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Tipi_CMCH</t>
+  </si>
+  <si>
+    <t>Yükleme Arabası Tipi</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Tipi_CMCH_opts</t>
+  </si>
+  <si>
+    <t>YA-6T</t>
+  </si>
+  <si>
+    <t>YA-8T</t>
+  </si>
+  <si>
+    <t>YA-10T</t>
+  </si>
+  <si>
+    <t>YA-12T</t>
+  </si>
+  <si>
+    <t>YA-15T</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok_CMCH</t>
+  </si>
+  <si>
+    <t>Yükleme Arabası Strok</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok_CMCH_opts</t>
+  </si>
+  <si>
+    <t>6 ton taşıma kapasiteli yükleme arabası</t>
+  </si>
+  <si>
+    <t>8 ton taşıma kapasiteli yükleme arabası</t>
+  </si>
+  <si>
+    <t>10 ton taşıma kapasiteli yükleme arabası</t>
+  </si>
+  <si>
+    <t>12 ton taşıma kapasiteli yükleme arabası</t>
+  </si>
+  <si>
+    <t>15 ton taşıma kapasiteli yükleme arabası</t>
+  </si>
+  <si>
+    <t>(600 mm dikey strok)</t>
+  </si>
+  <si>
+    <t>Yükleme_Arabasi_Strok_harici_CMCH</t>
+  </si>
+  <si>
+    <t>Listede Olmayan Strok (belirtiniz...)</t>
   </si>
 </sst>
 </file>
@@ -1623,7 +1962,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2102,10 +2441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2138,7 +2477,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2155,7 +2494,7 @@
         <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2172,10 +2511,10 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -2212,16 +2551,16 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,10 +2574,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -2258,7 +2597,7 @@
         <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -2275,10 +2614,10 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -2304,7 +2643,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2318,10 +2657,10 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -2338,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E11" t="s">
         <v>82</v>
@@ -2358,10 +2697,10 @@
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -2378,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E13" t="s">
         <v>83</v>
@@ -2398,10 +2737,10 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -2418,7 +2757,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
         <v>84</v>
@@ -2441,7 +2780,7 @@
         <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2458,10 +2797,10 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -2478,10 +2817,10 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -2498,10 +2837,10 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2518,10 +2857,10 @@
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20">
         <v>5</v>
@@ -2538,10 +2877,10 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2558,10 +2897,10 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -2578,10 +2917,10 @@
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>8</v>
@@ -2598,7 +2937,7 @@
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
         <v>84</v>
@@ -2621,7 +2960,7 @@
         <v>79</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2638,10 +2977,10 @@
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -2658,10 +2997,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -2678,10 +3017,10 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28">
         <v>4</v>
@@ -2698,10 +3037,10 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -2718,10 +3057,10 @@
         <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F30">
         <v>6</v>
@@ -2738,7 +3077,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E31" t="s">
         <v>84</v>
@@ -2747,7 +3086,67 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" t="s">
+        <v>395</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>396</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -2755,10 +3154,19 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>397</v>
+      </c>
+      <c r="E35" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -2766,10 +3174,19 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -2777,10 +3194,19 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -2788,10 +3214,19 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -2801,202 +3236,566 @@
       <c r="C39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>399</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" t="s">
+        <v>401</v>
+      </c>
+      <c r="E43" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" t="s">
+        <v>403</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>404</v>
+      </c>
+      <c r="E46" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" t="s">
+        <v>406</v>
+      </c>
+      <c r="E47" t="s">
+        <v>407</v>
+      </c>
+      <c r="F47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" t="s">
+        <v>408</v>
+      </c>
+      <c r="E48" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>409</v>
+      </c>
+      <c r="E49" t="s">
+        <v>410</v>
+      </c>
+      <c r="F49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>411</v>
+      </c>
+      <c r="E50" t="s">
+        <v>412</v>
+      </c>
+      <c r="F50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>413</v>
+      </c>
+      <c r="E51" t="s">
+        <v>414</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>415</v>
+      </c>
+      <c r="E52" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E53" t="s">
+        <v>227</v>
+      </c>
+      <c r="F53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>84</v>
+      </c>
+      <c r="F54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B68" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B69" t="s">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C69" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>39</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C70" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>39</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B71" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>39</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B72" t="s">
         <v>47</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C72" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>39</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B73" t="s">
         <v>47</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>39</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B74" t="s">
         <v>49</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C74" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B75" t="s">
         <v>49</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C75" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B76" t="s">
         <v>54</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C76" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>39</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B77" t="s">
         <v>54</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C77" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>39</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B78" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C78" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>39</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B79" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C79" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>39</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B80" t="s">
         <v>64</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C80" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>65</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B81" t="s">
         <v>66</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C81" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>65</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B82" t="s">
         <v>66</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C82" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>65</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B83" t="s">
         <v>69</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>65</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B84" t="s">
         <v>69</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C84" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>65</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B85" t="s">
         <v>73</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C85" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3008,23 +3807,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R43"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="13" width="13.28515625" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -3062,25 +3869,25 @@
         <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -3088,22 +3895,22 @@
         <v>79</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>107</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>109</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>110</v>
-      </c>
       <c r="Q2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -3111,51 +3918,51 @@
         <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" t="s">
         <v>139</v>
       </c>
-      <c r="N3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>140</v>
-      </c>
       <c r="R3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -3163,22 +3970,22 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" t="s">
         <v>123</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
         <v>124</v>
       </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>125</v>
-      </c>
       <c r="Q5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -3186,132 +3993,132 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>126</v>
       </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O6" t="s">
         <v>128</v>
       </c>
-      <c r="N6" t="s">
-        <v>123</v>
-      </c>
-      <c r="O6" t="s">
-        <v>129</v>
-      </c>
       <c r="Q6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="Q8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N9" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="O9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R9" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K10" t="s">
+        <v>247</v>
+      </c>
+      <c r="L10" t="s">
         <v>248</v>
-      </c>
-      <c r="L10" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -3322,19 +4129,19 @@
         <v>86</v>
       </c>
       <c r="C11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>143</v>
       </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>144</v>
-      </c>
       <c r="Q11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -3342,22 +4149,22 @@
         <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" t="s">
         <v>243</v>
-      </c>
-      <c r="D12" t="s">
-        <v>244</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -3366,100 +4173,100 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="R12" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" t="s">
-        <v>156</v>
-      </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R14" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
         <v>157</v>
       </c>
-      <c r="C15" t="s">
-        <v>158</v>
-      </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="O15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R15" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -3470,751 +4277,1185 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
         <v>176</v>
       </c>
-      <c r="D16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>177</v>
-      </c>
       <c r="Q16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="Q18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B20" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="N20" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R20" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
         <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B24" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C24" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="Q24" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="Q25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B26" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
         <v>248</v>
-      </c>
-      <c r="L27" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q28" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" t="s">
         <v>243</v>
-      </c>
-      <c r="D29" t="s">
-        <v>244</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N30" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O30" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R30" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B31" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="N31" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O31" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R31" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B32" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C32" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="Q32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B33" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C33" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K33" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N33" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R33" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C34" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="N34" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="O34" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R34" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C35" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K35" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R35" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B36" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="N37" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O37" t="s">
         <v>26</v>
       </c>
       <c r="Q37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R37" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B38" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s">
         <v>33</v>
       </c>
       <c r="Q38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R38" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="Q39" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B40" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N40" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="O40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R40" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="K41" t="s">
+        <v>247</v>
+      </c>
+      <c r="L41" t="s">
         <v>248</v>
-      </c>
-      <c r="L41" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N42" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="O42" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R42" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B43" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K43" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q43" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>394</v>
+      </c>
+      <c r="B44" t="s">
+        <v>394</v>
+      </c>
+      <c r="C44" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>396</v>
+      </c>
+      <c r="B45" t="s">
+        <v>396</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>396</v>
+      </c>
+      <c r="B46" t="s">
+        <v>388</v>
+      </c>
+      <c r="C46" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>390</v>
+      </c>
+      <c r="N46" t="s">
+        <v>396</v>
+      </c>
+      <c r="O46" t="s">
+        <v>139</v>
+      </c>
+      <c r="R46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" t="s">
+        <v>450</v>
+      </c>
+      <c r="C48" t="s">
+        <v>451</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>398</v>
+      </c>
+      <c r="B49" t="s">
+        <v>462</v>
+      </c>
+      <c r="C49" t="s">
+        <v>460</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>398</v>
+      </c>
+      <c r="B50" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>398</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
+      <c r="N51" t="s">
+        <v>462</v>
+      </c>
+      <c r="O51" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>252</v>
+      </c>
+      <c r="R51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+      <c r="N52" t="s">
+        <v>462</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>252</v>
+      </c>
+      <c r="R52" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" t="s">
+        <v>488</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>486</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" t="s">
+        <v>487</v>
+      </c>
+      <c r="C55" t="s">
+        <v>489</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>490</v>
+      </c>
+      <c r="N55" t="s">
+        <v>400</v>
+      </c>
+      <c r="O55" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>252</v>
+      </c>
+      <c r="R55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B56" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" t="s">
+        <v>492</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>493</v>
+      </c>
+      <c r="N56" t="s">
+        <v>400</v>
+      </c>
+      <c r="O56" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>252</v>
+      </c>
+      <c r="R56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>494</v>
+      </c>
+      <c r="C57" t="s">
+        <v>495</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>496</v>
+      </c>
+      <c r="N57" t="s">
+        <v>400</v>
+      </c>
+      <c r="O57" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>252</v>
+      </c>
+      <c r="R57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" t="s">
+        <v>502</v>
+      </c>
+      <c r="C58" t="s">
+        <v>503</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>504</v>
+      </c>
+      <c r="N58" t="s">
+        <v>400</v>
+      </c>
+      <c r="O58" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>252</v>
+      </c>
+      <c r="R58" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>400</v>
+      </c>
+      <c r="B59" t="s">
+        <v>511</v>
+      </c>
+      <c r="C59" t="s">
+        <v>512</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>511</v>
+      </c>
+      <c r="N59" t="s">
+        <v>400</v>
+      </c>
+      <c r="O59" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>252</v>
+      </c>
+      <c r="R59" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4225,15 +5466,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F106" sqref="F106"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
@@ -4255,21 +5496,21 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4277,13 +5518,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" t="s">
-        <v>114</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -4291,13 +5532,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>116</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -4305,13 +5546,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -4319,13 +5560,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -4333,7 +5574,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -4341,13 +5582,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -4355,13 +5596,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4369,13 +5610,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4383,13 +5624,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -4397,13 +5638,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -4411,13 +5652,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -4425,13 +5666,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B14">
         <v>500</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -4439,13 +5680,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B15">
         <v>1250</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -4453,13 +5694,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B16">
         <v>2500</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -4467,13 +5708,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17">
         <v>4</v>
@@ -4481,13 +5722,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B18">
         <v>300</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -4495,13 +5736,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B19">
         <v>400</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -4509,13 +5750,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B20">
         <v>600</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -4523,13 +5764,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B21">
         <v>800</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -4537,13 +5778,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B22">
         <v>1000</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -4551,13 +5792,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
         <v>140</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -4565,7 +5806,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4573,7 +5814,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -4581,13 +5822,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4595,13 +5836,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -4609,13 +5850,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -4623,13 +5864,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -4637,13 +5878,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -4651,13 +5892,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
         <v>140</v>
-      </c>
-      <c r="C31" t="s">
-        <v>141</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -4665,7 +5906,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -4673,13 +5914,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4687,13 +5928,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>469</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -4701,13 +5942,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4715,13 +5956,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>271</v>
+        <v>471</v>
       </c>
       <c r="D36">
         <v>4</v>
@@ -4729,13 +5970,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>272</v>
+        <v>472</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -4743,13 +5984,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>273</v>
+        <v>473</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -4757,13 +5998,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
         <v>168</v>
-      </c>
-      <c r="C39" t="s">
-        <v>169</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -4771,13 +6012,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
         <v>170</v>
-      </c>
-      <c r="C40" t="s">
-        <v>171</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -4785,13 +6026,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -4799,13 +6040,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -4813,13 +6054,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -4827,13 +6068,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" t="s">
         <v>186</v>
-      </c>
-      <c r="C44" t="s">
-        <v>187</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -4841,13 +6082,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" t="s">
         <v>177</v>
       </c>
-      <c r="B45" t="s">
-        <v>178</v>
-      </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -4855,13 +6096,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -4869,13 +6110,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D47">
         <v>5</v>
@@ -4883,13 +6124,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -4897,13 +6138,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -4911,13 +6152,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D50">
         <v>8</v>
@@ -4925,13 +6166,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D51">
         <v>9</v>
@@ -4939,13 +6180,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4953,13 +6194,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" t="s">
         <v>196</v>
       </c>
-      <c r="B53" t="s">
-        <v>197</v>
-      </c>
       <c r="C53" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -4967,13 +6208,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -4981,13 +6222,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C55" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -4995,13 +6236,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -5009,13 +6250,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -5023,13 +6264,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D58">
         <v>7</v>
@@ -5037,13 +6278,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -5051,13 +6292,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -5065,13 +6306,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -5079,13 +6320,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D62">
         <v>11</v>
@@ -5093,13 +6334,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" t="s">
         <v>210</v>
-      </c>
-      <c r="C63" t="s">
-        <v>211</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -5107,13 +6348,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -5121,13 +6362,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -5135,13 +6376,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B66">
         <v>300</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -5149,13 +6390,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B67">
         <v>500</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -5163,13 +6404,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -5177,13 +6418,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -5191,13 +6432,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -5205,13 +6446,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" t="s">
         <v>221</v>
       </c>
-      <c r="B71" t="s">
-        <v>222</v>
-      </c>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5219,13 +6460,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -5233,13 +6474,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -5247,13 +6488,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -5261,13 +6502,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -5275,13 +6516,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" t="s">
         <v>232</v>
       </c>
-      <c r="B76" t="s">
-        <v>233</v>
-      </c>
       <c r="C76" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -5289,13 +6530,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -5303,13 +6544,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -5317,13 +6558,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79">
         <v>4</v>
@@ -5331,13 +6572,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C80" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -5345,13 +6586,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C81" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -5359,13 +6600,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B82">
         <v>2000</v>
       </c>
       <c r="C82" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -5373,13 +6614,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B83">
         <v>3000</v>
       </c>
       <c r="C83" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -5387,13 +6628,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B84">
         <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5401,13 +6642,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B85">
         <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -5415,13 +6656,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>315</v>
+      </c>
+      <c r="B86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" t="s">
         <v>321</v>
-      </c>
-      <c r="B86" t="s">
-        <v>322</v>
-      </c>
-      <c r="C86" t="s">
-        <v>327</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5429,13 +6670,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -5443,13 +6684,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C88" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D88">
         <v>3</v>
@@ -5457,13 +6698,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C89" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D89">
         <v>4</v>
@@ -5471,13 +6712,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C90" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -5485,13 +6726,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" t="s">
         <v>140</v>
-      </c>
-      <c r="C91" t="s">
-        <v>141</v>
       </c>
       <c r="D91">
         <v>6</v>
@@ -5499,13 +6740,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -5513,13 +6754,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C93" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -5527,13 +6768,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B94" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C94" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5541,13 +6782,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C95" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -5555,13 +6796,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B96" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" t="s">
         <v>140</v>
-      </c>
-      <c r="C96" t="s">
-        <v>141</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -5569,7 +6810,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5577,13 +6818,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5591,13 +6832,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
+        <v>139</v>
+      </c>
+      <c r="C99" t="s">
         <v>140</v>
-      </c>
-      <c r="C99" t="s">
-        <v>141</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5605,7 +6846,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5613,7 +6854,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
@@ -5627,13 +6868,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -5641,19 +6882,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C103" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F103" t="s">
         <v>26</v>
@@ -5661,19 +6902,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>353</v>
+      </c>
+      <c r="B104" t="s">
         <v>359</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>365</v>
-      </c>
-      <c r="C104" t="s">
-        <v>371</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F104" t="s">
         <v>26</v>
@@ -5681,19 +6922,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B105" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C105" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F105" t="s">
         <v>26</v>
@@ -5701,19 +6942,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B106" t="s">
+        <v>360</v>
+      </c>
+      <c r="C106" t="s">
         <v>366</v>
-      </c>
-      <c r="C106" t="s">
-        <v>372</v>
       </c>
       <c r="D106">
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F106" t="s">
         <v>26</v>
@@ -5721,19 +6962,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C107" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D107">
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F107" t="s">
         <v>26</v>
@@ -5741,19 +6982,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B108">
         <v>5052</v>
       </c>
       <c r="C108" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F108" t="s">
         <v>33</v>
@@ -5761,133 +7002,133 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B109">
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F109" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B110">
         <v>200</v>
       </c>
       <c r="C110" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D110">
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F110" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B111">
         <v>300</v>
       </c>
       <c r="C111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D111">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F111" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B112">
         <v>400</v>
       </c>
       <c r="C112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D112">
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F112" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B113">
         <v>600</v>
       </c>
       <c r="C113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D113">
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F113" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B114" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" t="s">
         <v>140</v>
-      </c>
-      <c r="C114" t="s">
-        <v>141</v>
       </c>
       <c r="D114">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F114" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C115" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5895,13 +7136,13 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -5909,15 +7150,761 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B117">
         <v>50</v>
       </c>
       <c r="C117" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>416</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" t="s">
+        <v>420</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>416</v>
+      </c>
+      <c r="B119" t="s">
+        <v>417</v>
+      </c>
+      <c r="C119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>416</v>
+      </c>
+      <c r="B120" t="s">
+        <v>418</v>
+      </c>
+      <c r="C120" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>416</v>
+      </c>
+      <c r="B121" t="s">
+        <v>419</v>
+      </c>
+      <c r="C121" t="s">
+        <v>423</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>424</v>
+      </c>
+      <c r="B122">
+        <v>400</v>
+      </c>
+      <c r="C122" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>424</v>
+      </c>
+      <c r="B123">
+        <v>600</v>
+      </c>
+      <c r="C123" t="s">
+        <v>426</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>424</v>
+      </c>
+      <c r="B124">
+        <v>800</v>
+      </c>
+      <c r="C124" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>424</v>
+      </c>
+      <c r="B125">
+        <v>1000</v>
+      </c>
+      <c r="C125" t="s">
+        <v>428</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>424</v>
+      </c>
+      <c r="B126">
+        <v>1300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>429</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>424</v>
+      </c>
+      <c r="B127">
+        <v>1500</v>
+      </c>
+      <c r="C127" t="s">
+        <v>430</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>424</v>
+      </c>
+      <c r="B128">
+        <v>1600</v>
+      </c>
+      <c r="C128" t="s">
+        <v>431</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>424</v>
+      </c>
+      <c r="B129">
+        <v>1800</v>
+      </c>
+      <c r="C129" t="s">
+        <v>432</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>424</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+      <c r="C130" t="s">
+        <v>140</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>433</v>
+      </c>
+      <c r="B131" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" t="s">
+        <v>442</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>433</v>
+      </c>
+      <c r="B132" t="s">
+        <v>434</v>
+      </c>
+      <c r="C132" t="s">
+        <v>443</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>433</v>
+      </c>
+      <c r="B133" t="s">
+        <v>436</v>
+      </c>
+      <c r="C133" t="s">
+        <v>444</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>433</v>
+      </c>
+      <c r="B134" t="s">
+        <v>437</v>
+      </c>
+      <c r="C134" t="s">
+        <v>445</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>433</v>
+      </c>
+      <c r="B135" t="s">
+        <v>438</v>
+      </c>
+      <c r="C135" t="s">
+        <v>446</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>433</v>
+      </c>
+      <c r="B136" t="s">
+        <v>439</v>
+      </c>
+      <c r="C136" t="s">
+        <v>447</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>433</v>
+      </c>
+      <c r="B137" t="s">
+        <v>440</v>
+      </c>
+      <c r="C137" t="s">
+        <v>448</v>
+      </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>433</v>
+      </c>
+      <c r="B138" t="s">
+        <v>441</v>
+      </c>
+      <c r="C138" t="s">
+        <v>449</v>
+      </c>
+      <c r="D138">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>452</v>
+      </c>
+      <c r="B139" t="s">
+        <v>453</v>
+      </c>
+      <c r="C139" t="s">
+        <v>455</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>452</v>
+      </c>
+      <c r="B140" t="s">
+        <v>454</v>
+      </c>
+      <c r="C140" t="s">
+        <v>456</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>461</v>
+      </c>
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+      <c r="C141" t="s">
+        <v>116</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>461</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>458</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>461</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>459</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>457</v>
+      </c>
+      <c r="B144" t="s">
+        <v>161</v>
+      </c>
+      <c r="C144" t="s">
+        <v>469</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>457</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" t="s">
+        <v>470</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>457</v>
+      </c>
+      <c r="B146" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" t="s">
+        <v>471</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>457</v>
+      </c>
+      <c r="B147" t="s">
+        <v>463</v>
+      </c>
+      <c r="C147" t="s">
+        <v>474</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>457</v>
+      </c>
+      <c r="B148" t="s">
+        <v>464</v>
+      </c>
+      <c r="C148" t="s">
+        <v>475</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>457</v>
+      </c>
+      <c r="B149" t="s">
+        <v>465</v>
+      </c>
+      <c r="C149" t="s">
+        <v>476</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>457</v>
+      </c>
+      <c r="B150" t="s">
+        <v>466</v>
+      </c>
+      <c r="C150" t="s">
+        <v>477</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>457</v>
+      </c>
+      <c r="B151" t="s">
+        <v>467</v>
+      </c>
+      <c r="C151" t="s">
+        <v>478</v>
+      </c>
+      <c r="D151">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>457</v>
+      </c>
+      <c r="B152" t="s">
+        <v>468</v>
+      </c>
+      <c r="C152" t="s">
+        <v>479</v>
+      </c>
+      <c r="D152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>481</v>
+      </c>
+      <c r="B153" t="s">
+        <v>209</v>
+      </c>
+      <c r="C153" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>481</v>
+      </c>
+      <c r="B154" t="s">
+        <v>482</v>
+      </c>
+      <c r="C154" t="s">
+        <v>484</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>481</v>
+      </c>
+      <c r="B155" t="s">
+        <v>483</v>
+      </c>
+      <c r="C155" t="s">
+        <v>485</v>
+      </c>
+      <c r="D155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>486</v>
+      </c>
+      <c r="B156" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>486</v>
+      </c>
+      <c r="B157" t="s">
+        <v>128</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>490</v>
+      </c>
+      <c r="B158" t="s">
+        <v>116</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>490</v>
+      </c>
+      <c r="B159" t="s">
+        <v>128</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>493</v>
+      </c>
+      <c r="B160" t="s">
+        <v>116</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>493</v>
+      </c>
+      <c r="B161" t="s">
+        <v>128</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>496</v>
+      </c>
+      <c r="B162" t="s">
+        <v>212</v>
+      </c>
+      <c r="C162" t="s">
+        <v>214</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>496</v>
+      </c>
+      <c r="B163" t="s">
+        <v>497</v>
+      </c>
+      <c r="C163" t="s">
+        <v>505</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>496</v>
+      </c>
+      <c r="B164" t="s">
+        <v>498</v>
+      </c>
+      <c r="C164" t="s">
+        <v>506</v>
+      </c>
+      <c r="D164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>496</v>
+      </c>
+      <c r="B165" t="s">
+        <v>499</v>
+      </c>
+      <c r="C165" t="s">
+        <v>507</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>496</v>
+      </c>
+      <c r="B166" t="s">
+        <v>500</v>
+      </c>
+      <c r="C166" t="s">
+        <v>508</v>
+      </c>
+      <c r="D166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>496</v>
+      </c>
+      <c r="B167" t="s">
+        <v>501</v>
+      </c>
+      <c r="C167" t="s">
+        <v>509</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>504</v>
+      </c>
+      <c r="B168">
+        <v>300</v>
+      </c>
+      <c r="C168" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>504</v>
+      </c>
+      <c r="B169">
+        <v>500</v>
+      </c>
+      <c r="C169" t="s">
+        <v>278</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>504</v>
+      </c>
+      <c r="B170">
+        <v>600</v>
+      </c>
+      <c r="C170" t="s">
+        <v>510</v>
+      </c>
+      <c r="D170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>504</v>
+      </c>
+      <c r="B171" t="s">
+        <v>139</v>
+      </c>
+      <c r="C171" t="s">
+        <v>140</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>511</v>
+      </c>
+      <c r="D172">
         <v>1</v>
       </c>
     </row>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF568C-7208-48FD-8C40-6C056009EF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04FF3B-9C18-43C9-B9A3-1A7D7C3A3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="515">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1575,6 +1575,12 @@
   </si>
   <si>
     <t>Listede Olmayan Strok (belirtiniz...)</t>
+  </si>
+  <si>
+    <t>Discap_CMKS_opts</t>
+  </si>
+  <si>
+    <t>Discap_CMKS</t>
   </si>
 </sst>
 </file>
@@ -2444,7 +2450,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:E42"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>514</v>
       </c>
       <c r="E37" t="s">
         <v>94</v>
@@ -3807,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,6 +5464,29 @@
         <v>383</v>
       </c>
     </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>514</v>
+      </c>
+      <c r="B60" t="s">
+        <v>514</v>
+      </c>
+      <c r="C60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>513</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5466,10 +5495,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:A178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7908,6 +7937,90 @@
         <v>1</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>513</v>
+      </c>
+      <c r="B173" t="s">
+        <v>148</v>
+      </c>
+      <c r="C173" t="s">
+        <v>263</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>513</v>
+      </c>
+      <c r="B174" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" t="s">
+        <v>264</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>513</v>
+      </c>
+      <c r="B175" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" t="s">
+        <v>265</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>513</v>
+      </c>
+      <c r="B176" t="s">
+        <v>151</v>
+      </c>
+      <c r="C176" t="s">
+        <v>266</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>513</v>
+      </c>
+      <c r="B177" t="s">
+        <v>152</v>
+      </c>
+      <c r="C177" t="s">
+        <v>267</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>513</v>
+      </c>
+      <c r="B178" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" t="s">
+        <v>140</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04FF3B-9C18-43C9-B9A3-1A7D7C3A3740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70A8F9-1094-4052-A2A6-715ECEA21931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3816,7 +3816,7 @@
   <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O60" sqref="O60"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4008,7 +4008,7 @@
         <v>108</v>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>127</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70A8F9-1094-4052-A2A6-715ECEA21931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560A8B3-B0C2-44D2-B142-6B3B2A042069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="515">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3815,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5485,6 +5485,9 @@
       </c>
       <c r="Q60" t="s">
         <v>252</v>
+      </c>
+      <c r="R60" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3560A8B3-B0C2-44D2-B142-6B3B2A042069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92878C-D83C-4A7A-9527-22D88F1B0D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1430" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="515">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>(H11 Tipi Baskı Kolu - Hidrolik ØÇAP)</t>
   </si>
   <si>
-    <t>1,2</t>
-  </si>
-  <si>
     <t>Merkezleme_CMCH_opts</t>
   </si>
   <si>
@@ -1577,10 +1574,13 @@
     <t>Listede Olmayan Strok (belirtiniz...)</t>
   </si>
   <si>
-    <t>Discap_CMKS_opts</t>
-  </si>
-  <si>
-    <t>Discap_CMKS</t>
+    <t>Tek,Çift</t>
+  </si>
+  <si>
+    <t>Tek</t>
+  </si>
+  <si>
+    <t>Çift</t>
   </si>
 </sst>
 </file>
@@ -2449,8 +2449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,7 +3203,7 @@
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>514</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
         <v>94</v>
@@ -3813,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,7 +5217,7 @@
         <v>462</v>
       </c>
       <c r="O51" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="Q51" t="s">
         <v>252</v>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q53" t="s">
         <v>252</v>
@@ -5289,7 +5289,7 @@
         <v>400</v>
       </c>
       <c r="C54" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D54" t="s">
         <v>108</v>
@@ -5298,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q54" t="s">
         <v>252</v>
@@ -5309,10 +5309,10 @@
         <v>400</v>
       </c>
       <c r="B55" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C55" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D55" t="s">
         <v>108</v>
@@ -5321,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N55" t="s">
         <v>400</v>
@@ -5341,10 +5341,10 @@
         <v>400</v>
       </c>
       <c r="B56" t="s">
+        <v>490</v>
+      </c>
+      <c r="C56" t="s">
         <v>491</v>
-      </c>
-      <c r="C56" t="s">
-        <v>492</v>
       </c>
       <c r="D56" t="s">
         <v>108</v>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N56" t="s">
         <v>400</v>
@@ -5373,10 +5373,10 @@
         <v>400</v>
       </c>
       <c r="B57" t="s">
+        <v>493</v>
+      </c>
+      <c r="C57" t="s">
         <v>494</v>
-      </c>
-      <c r="C57" t="s">
-        <v>495</v>
       </c>
       <c r="D57" t="s">
         <v>108</v>
@@ -5385,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N57" t="s">
         <v>400</v>
@@ -5405,10 +5405,10 @@
         <v>400</v>
       </c>
       <c r="B58" t="s">
+        <v>501</v>
+      </c>
+      <c r="C58" t="s">
         <v>502</v>
-      </c>
-      <c r="C58" t="s">
-        <v>503</v>
       </c>
       <c r="D58" t="s">
         <v>108</v>
@@ -5417,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N58" t="s">
         <v>400</v>
@@ -5437,10 +5437,10 @@
         <v>400</v>
       </c>
       <c r="B59" t="s">
+        <v>510</v>
+      </c>
+      <c r="C59" t="s">
         <v>511</v>
-      </c>
-      <c r="C59" t="s">
-        <v>512</v>
       </c>
       <c r="D59" t="s">
         <v>108</v>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N59" t="s">
         <v>400</v>
@@ -5461,32 +5461,6 @@
         <v>252</v>
       </c>
       <c r="R59" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>514</v>
-      </c>
-      <c r="B60" t="s">
-        <v>514</v>
-      </c>
-      <c r="C60" t="s">
-        <v>142</v>
-      </c>
-      <c r="D60" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>252</v>
-      </c>
-      <c r="R60" t="s">
         <v>383</v>
       </c>
     </row>
@@ -5498,10 +5472,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F178"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:A178"/>
+    <sheetView topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:XFD178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7534,8 +7508,8 @@
       <c r="A142" t="s">
         <v>461</v>
       </c>
-      <c r="B142">
-        <v>1</v>
+      <c r="B142" t="s">
+        <v>513</v>
       </c>
       <c r="C142" t="s">
         <v>458</v>
@@ -7548,8 +7522,8 @@
       <c r="A143" t="s">
         <v>461</v>
       </c>
-      <c r="B143">
-        <v>2</v>
+      <c r="B143" t="s">
+        <v>514</v>
       </c>
       <c r="C143" t="s">
         <v>459</v>
@@ -7686,7 +7660,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B153" t="s">
         <v>209</v>
@@ -7700,13 +7674,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>480</v>
+      </c>
+      <c r="B154" t="s">
         <v>481</v>
       </c>
-      <c r="B154" t="s">
-        <v>482</v>
-      </c>
       <c r="C154" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -7714,13 +7688,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B155" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C155" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -7728,7 +7702,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B156" t="s">
         <v>116</v>
@@ -7739,7 +7713,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B157" t="s">
         <v>128</v>
@@ -7750,7 +7724,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B158" t="s">
         <v>116</v>
@@ -7761,7 +7735,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B159" t="s">
         <v>128</v>
@@ -7772,7 +7746,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B160" t="s">
         <v>116</v>
@@ -7783,7 +7757,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B161" t="s">
         <v>128</v>
@@ -7794,7 +7768,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B162" t="s">
         <v>212</v>
@@ -7808,13 +7782,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>495</v>
+      </c>
+      <c r="B163" t="s">
         <v>496</v>
       </c>
-      <c r="B163" t="s">
-        <v>497</v>
-      </c>
       <c r="C163" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -7822,13 +7796,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B164" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C164" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -7836,13 +7810,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B165" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C165" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -7850,13 +7824,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B166" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C166" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D166">
         <v>5</v>
@@ -7864,13 +7838,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B167" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C167" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D167">
         <v>6</v>
@@ -7878,7 +7852,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B168">
         <v>300</v>
@@ -7892,7 +7866,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B169">
         <v>500</v>
@@ -7906,13 +7880,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B170">
         <v>600</v>
       </c>
       <c r="C170" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -7920,7 +7894,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B171" t="s">
         <v>139</v>
@@ -7934,94 +7908,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D172">
         <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>513</v>
-      </c>
-      <c r="B173" t="s">
-        <v>148</v>
-      </c>
-      <c r="C173" t="s">
-        <v>263</v>
-      </c>
-      <c r="D173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>513</v>
-      </c>
-      <c r="B174" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" t="s">
-        <v>264</v>
-      </c>
-      <c r="D174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>513</v>
-      </c>
-      <c r="B175" t="s">
-        <v>150</v>
-      </c>
-      <c r="C175" t="s">
-        <v>265</v>
-      </c>
-      <c r="D175">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>513</v>
-      </c>
-      <c r="B176" t="s">
-        <v>151</v>
-      </c>
-      <c r="C176" t="s">
-        <v>266</v>
-      </c>
-      <c r="D176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>513</v>
-      </c>
-      <c r="B177" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177" t="s">
-        <v>267</v>
-      </c>
-      <c r="D177">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>513</v>
-      </c>
-      <c r="B178" t="s">
-        <v>139</v>
-      </c>
-      <c r="C178" t="s">
-        <v>140</v>
-      </c>
-      <c r="D178">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92878C-D83C-4A7A-9527-22D88F1B0D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00659CB1-8FAD-4D6C-B707-BC389A3F5A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="515">
   <si>
     <t>Kategori1</t>
   </si>
@@ -2449,7 +2449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -3815,8 +3815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5248,8 +5248,8 @@
       <c r="N52" t="s">
         <v>462</v>
       </c>
-      <c r="O52">
-        <v>2</v>
+      <c r="O52" t="s">
+        <v>514</v>
       </c>
       <c r="Q52" t="s">
         <v>252</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00659CB1-8FAD-4D6C-B707-BC389A3F5A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB322875-552C-4080-BFE3-89BE2B5AD5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="516">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1581,6 +1581,9 @@
   </si>
   <si>
     <t>Çift</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1971,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,8 +2452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3815,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5193,6 +5196,9 @@
       <c r="F50" t="s">
         <v>457</v>
       </c>
+      <c r="Q50" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -5456,9 +5462,6 @@
       </c>
       <c r="O59" t="s">
         <v>128</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>252</v>
       </c>
       <c r="R59" t="s">
         <v>383</v>
@@ -5474,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:XFD178"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7707,6 +7710,9 @@
       <c r="B156" t="s">
         <v>116</v>
       </c>
+      <c r="C156" t="s">
+        <v>515</v>
+      </c>
       <c r="D156">
         <v>1</v>
       </c>
@@ -7718,6 +7724,9 @@
       <c r="B157" t="s">
         <v>128</v>
       </c>
+      <c r="C157" t="s">
+        <v>515</v>
+      </c>
       <c r="D157">
         <v>2</v>
       </c>
@@ -7729,6 +7738,9 @@
       <c r="B158" t="s">
         <v>116</v>
       </c>
+      <c r="C158" t="s">
+        <v>515</v>
+      </c>
       <c r="D158">
         <v>1</v>
       </c>
@@ -7740,6 +7752,9 @@
       <c r="B159" t="s">
         <v>128</v>
       </c>
+      <c r="C159" t="s">
+        <v>515</v>
+      </c>
       <c r="D159">
         <v>2</v>
       </c>
@@ -7751,6 +7766,9 @@
       <c r="B160" t="s">
         <v>116</v>
       </c>
+      <c r="C160" t="s">
+        <v>515</v>
+      </c>
       <c r="D160">
         <v>1</v>
       </c>
@@ -7761,6 +7779,9 @@
       </c>
       <c r="B161" t="s">
         <v>128</v>
+      </c>
+      <c r="C161" t="s">
+        <v>515</v>
       </c>
       <c r="D161">
         <v>2</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB322875-552C-4080-BFE3-89BE2B5AD5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAADC7A-250A-4CF7-A51C-2FC4803EC6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="516">
   <si>
     <t>Kategori1</t>
   </si>
@@ -3818,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q58" sqref="Q58"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3936,7 @@
         <v>135</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -4089,7 +4089,7 @@
         <v>135</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>286</v>
@@ -4167,7 +4167,7 @@
         <v>243</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>147</v>
@@ -4228,7 +4228,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>158</v>
@@ -4260,7 +4260,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>159</v>
@@ -4384,7 +4384,7 @@
         <v>108</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>296</v>
@@ -4603,7 +4603,7 @@
         <v>243</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>147</v>
@@ -4641,7 +4641,7 @@
         <v>108</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>322</v>
@@ -4673,7 +4673,7 @@
         <v>108</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>324</v>
@@ -4728,7 +4728,7 @@
         <v>135</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>335</v>
@@ -4760,7 +4760,7 @@
         <v>108</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>330</v>
@@ -4792,7 +4792,7 @@
         <v>135</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>336</v>
@@ -4847,7 +4847,7 @@
         <v>108</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>353</v>
@@ -4879,7 +4879,7 @@
         <v>108</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>357</v>
@@ -4934,7 +4934,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>390</v>
@@ -5093,7 +5093,7 @@
         <v>135</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>390</v>
@@ -5196,8 +5196,17 @@
       <c r="F50" t="s">
         <v>457</v>
       </c>
+      <c r="N50" t="s">
+        <v>462</v>
+      </c>
+      <c r="O50" t="s">
+        <v>512</v>
+      </c>
       <c r="Q50" t="s">
         <v>252</v>
+      </c>
+      <c r="R50" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
@@ -5214,7 +5223,7 @@
         <v>108</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>158</v>
@@ -5246,7 +5255,7 @@
         <v>108</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>159</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAADC7A-250A-4CF7-A51C-2FC4803EC6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0ABC51-D705-4C98-B7E6-3A72B934D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -3818,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3936,7 @@
         <v>135</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -4089,7 +4089,7 @@
         <v>135</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>286</v>
@@ -4167,7 +4167,7 @@
         <v>243</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
         <v>147</v>
@@ -4228,7 +4228,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
         <v>158</v>
@@ -4260,7 +4260,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="s">
         <v>159</v>
@@ -4384,7 +4384,7 @@
         <v>108</v>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>296</v>
@@ -4603,7 +4603,7 @@
         <v>243</v>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>147</v>
@@ -4641,7 +4641,7 @@
         <v>108</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>322</v>
@@ -4673,7 +4673,7 @@
         <v>108</v>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>324</v>
@@ -4728,7 +4728,7 @@
         <v>135</v>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>335</v>
@@ -4760,7 +4760,7 @@
         <v>108</v>
       </c>
       <c r="E34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>330</v>
@@ -4792,7 +4792,7 @@
         <v>135</v>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>336</v>
@@ -4847,7 +4847,7 @@
         <v>108</v>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>353</v>
@@ -4879,7 +4879,7 @@
         <v>108</v>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>357</v>
@@ -4934,7 +4934,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="s">
         <v>390</v>
@@ -5093,7 +5093,7 @@
         <v>135</v>
       </c>
       <c r="E46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="s">
         <v>390</v>
@@ -5223,7 +5223,7 @@
         <v>108</v>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
         <v>158</v>
@@ -5255,7 +5255,7 @@
         <v>108</v>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>159</v>
@@ -5486,7 +5486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0ABC51-D705-4C98-B7E6-3A72B934D700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963ABC92-359C-4460-852C-9E2E817A8E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3819,7 +3819,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,7 +5223,7 @@
         <v>108</v>
       </c>
       <c r="E51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>158</v>
@@ -5255,7 +5255,7 @@
         <v>108</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>159</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963ABC92-359C-4460-852C-9E2E817A8E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F652267-4D3D-4CCE-8E0C-3A764B8DBF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3818,8 +3818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3936,7 +3936,7 @@
         <v>135</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>138</v>
@@ -5093,7 +5093,7 @@
         <v>135</v>
       </c>
       <c r="E46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>390</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F652267-4D3D-4CCE-8E0C-3A764B8DBF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32343A4C-35E9-4DB3-AF14-FBA632BE0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3819,7 +3819,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4167,7 +4167,7 @@
         <v>243</v>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>147</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32343A4C-35E9-4DB3-AF14-FBA632BE0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69C1241-595A-48BC-A3E2-119749CDD797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="520">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1584,6 +1584,18 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Teleskop özelliği var</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Rulo devirme özelliği var</t>
   </si>
 </sst>
 </file>
@@ -2453,7 +2465,7 @@
   <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="D43" sqref="D43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3819,7 +3831,7 @@
   <dimension ref="A1:R59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4089,7 +4101,7 @@
         <v>135</v>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>286</v>
@@ -4228,7 +4240,7 @@
         <v>108</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>158</v>
@@ -4260,7 +4272,7 @@
         <v>108</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>159</v>
@@ -4384,7 +4396,7 @@
         <v>108</v>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>296</v>
@@ -4603,7 +4615,7 @@
         <v>243</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>147</v>
@@ -4641,7 +4653,7 @@
         <v>108</v>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>322</v>
@@ -4673,7 +4685,7 @@
         <v>108</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>324</v>
@@ -4728,7 +4740,7 @@
         <v>135</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>335</v>
@@ -4760,7 +4772,7 @@
         <v>108</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>330</v>
@@ -4792,7 +4804,7 @@
         <v>135</v>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>336</v>
@@ -4847,7 +4859,7 @@
         <v>108</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>353</v>
@@ -4879,7 +4891,7 @@
         <v>108</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
         <v>357</v>
@@ -4934,7 +4946,7 @@
         <v>135</v>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>390</v>
@@ -5487,7 +5499,7 @@
   <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7759,10 +7771,10 @@
         <v>489</v>
       </c>
       <c r="B159" t="s">
-        <v>128</v>
+        <v>516</v>
       </c>
       <c r="C159" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -7787,10 +7799,10 @@
         <v>492</v>
       </c>
       <c r="B161" t="s">
-        <v>128</v>
+        <v>518</v>
       </c>
       <c r="C161" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D161">
         <v>2</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.2.11\ortak\650.PLANLAMA\651.HUSNU\00.PLANLAMA\2024.11.06 - Yeni Uzun Kod Sistemi\ChatGPT\v18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69C1241-595A-48BC-A3E2-119749CDD797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0643EE49-8F63-4063-A3BE-901FF5F4C493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-7430" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="products" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="545">
   <si>
     <t>Kategori1</t>
   </si>
@@ -1596,6 +1596,81 @@
   </si>
   <si>
     <t>Rulo devirme özelliği var</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_Tipi_CMKS</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_Tipi_CMKS_opts</t>
+  </si>
+  <si>
+    <t>Sac_Giris_Sekli_CMKS</t>
+  </si>
+  <si>
+    <t>Sac Giriş Şekli</t>
+  </si>
+  <si>
+    <t>Sac_Giris_Sekli_CMKS_opts</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_Motor</t>
+  </si>
+  <si>
+    <t>Giriş Ünitesi Motorlu Mu?</t>
+  </si>
+  <si>
+    <t>Giris_Unitesi_Motor_opts</t>
+  </si>
+  <si>
+    <t>GU63</t>
+  </si>
+  <si>
+    <t>GU80</t>
+  </si>
+  <si>
+    <t>GU100</t>
+  </si>
+  <si>
+    <t>GU125</t>
+  </si>
+  <si>
+    <t>GU160</t>
+  </si>
+  <si>
+    <t>GUKR140</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Ø63 giriş ünitesi</t>
+  </si>
+  <si>
+    <t>Ø80 giriş ünitesi</t>
+  </si>
+  <si>
+    <t>Ø100 giriş ünitesi</t>
+  </si>
+  <si>
+    <t>Ø125 giriş ünitesi</t>
+  </si>
+  <si>
+    <t>Ø160 giriş ünitesi</t>
+  </si>
+  <si>
+    <t>Ø140 bilmem neli giriş ünitesi</t>
+  </si>
+  <si>
+    <t>Alttan Besleme</t>
+  </si>
+  <si>
+    <t>Üstten Besleme</t>
+  </si>
+  <si>
+    <t>Hayır</t>
+  </si>
+  <si>
+    <t>Motorlu Giriş Ünitesi</t>
   </si>
 </sst>
 </file>
@@ -3828,10 +3903,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:R59"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q62" sqref="Q62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5488,6 +5563,75 @@
         <v>383</v>
       </c>
     </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>401</v>
+      </c>
+      <c r="B60" t="s">
+        <v>520</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>401</v>
+      </c>
+      <c r="B61" t="s">
+        <v>522</v>
+      </c>
+      <c r="C61" t="s">
+        <v>523</v>
+      </c>
+      <c r="D61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>401</v>
+      </c>
+      <c r="B62" t="s">
+        <v>525</v>
+      </c>
+      <c r="C62" t="s">
+        <v>526</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5496,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,6 +8100,146 @@
         <v>1</v>
       </c>
     </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>521</v>
+      </c>
+      <c r="B173" t="s">
+        <v>528</v>
+      </c>
+      <c r="C173" t="s">
+        <v>535</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>521</v>
+      </c>
+      <c r="B174" t="s">
+        <v>529</v>
+      </c>
+      <c r="C174" t="s">
+        <v>536</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" t="s">
+        <v>530</v>
+      </c>
+      <c r="C175" t="s">
+        <v>537</v>
+      </c>
+      <c r="D175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>521</v>
+      </c>
+      <c r="B176" t="s">
+        <v>531</v>
+      </c>
+      <c r="C176" t="s">
+        <v>538</v>
+      </c>
+      <c r="D176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>521</v>
+      </c>
+      <c r="B177" t="s">
+        <v>532</v>
+      </c>
+      <c r="C177" t="s">
+        <v>539</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>521</v>
+      </c>
+      <c r="B178" t="s">
+        <v>533</v>
+      </c>
+      <c r="C178" t="s">
+        <v>540</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>524</v>
+      </c>
+      <c r="B179" t="s">
+        <v>454</v>
+      </c>
+      <c r="C179" t="s">
+        <v>541</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>524</v>
+      </c>
+      <c r="B180" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" t="s">
+        <v>542</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>527</v>
+      </c>
+      <c r="B181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C181" t="s">
+        <v>543</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>527</v>
+      </c>
+      <c r="B182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182" t="s">
+        <v>544</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
